--- a/src/test/resources/excel/read_excel_cell.xlsx
+++ b/src/test/resources/excel/read_excel_cell.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\github\asta4e\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -41,9 +39,6 @@
     <t>B2</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
@@ -744,13 +739,17 @@
   </si>
   <si>
     <t>O16</t>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP Regular"/>
@@ -790,9 +789,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -853,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1065,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,14 +1075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1012" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -1095,754 +1092,759 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>39</v>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="1" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75">
-      <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" s="1" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75">
-      <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="1" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75">
-      <c r="A8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O8" s="1" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75">
-      <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="1" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75">
-      <c r="A10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O10" s="1" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75">
-      <c r="A11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O11" s="1" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75">
-      <c r="A12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="1" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75">
-      <c r="A13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O13" s="1" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75">
-      <c r="A14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O14" s="1" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75">
-      <c r="A15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O15" s="1" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="12.75">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>